--- a/yobijikken_cleaned_ansi.xlsx
+++ b/yobijikken_cleaned_ansi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\match\PycharmProjects\Sotsuken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8D4AA6C-D8AD-4E94-B1EA-134779B375CD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B0455C-AE14-4C23-84DF-FD82CE653E0A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="yobijikken_cleaned_ansi" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">yobijikken_cleaned_ansi!$A$1:$T$44</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -8773,7 +8773,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Z55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
